--- a/Splendor_Cartes - sans requetes.xlsx
+++ b/Splendor_Cartes - sans requetes.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Cours\2018-2019\MA-24\Projet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Splendide\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10452" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10455" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -381,32 +381,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K1" sqref="K1"/>
+      <selection pane="bottomLeft" activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.109375" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" customWidth="1"/>
+    <col min="1" max="1" width="27.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="18.21875" customWidth="1"/>
-    <col min="5" max="5" width="19.21875" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" customWidth="1"/>
-    <col min="7" max="7" width="14.44140625" customWidth="1"/>
-    <col min="8" max="8" width="15.44140625" customWidth="1"/>
-    <col min="9" max="9" width="62.88671875" customWidth="1"/>
-    <col min="10" max="10" width="19.6640625" customWidth="1"/>
-    <col min="11" max="11" width="19.5546875" customWidth="1"/>
-    <col min="12" max="12" width="11.5546875"/>
-    <col min="13" max="13" width="29.44140625" customWidth="1"/>
-    <col min="14" max="1025" width="11.5546875"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" customWidth="1"/>
+    <col min="9" max="9" width="62.85546875" customWidth="1"/>
+    <col min="10" max="10" width="19.7109375" customWidth="1"/>
+    <col min="11" max="11" width="19.5703125" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125"/>
+    <col min="13" max="13" width="29.42578125" customWidth="1"/>
+    <col min="14" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -432,7 +432,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>4</v>
       </c>
@@ -445,12 +445,8 @@
       <c r="G2">
         <v>4</v>
       </c>
-      <c r="I2" t="str">
-        <f>"insert into card(idcard, fkRessource, level, nbPtPrestige) values ("&amp;ROW()&amp;", 0,"&amp;A2&amp;","&amp;C2&amp;")"</f>
-        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (2, 0,4,3)</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>4</v>
       </c>
@@ -463,12 +459,8 @@
       <c r="E3">
         <v>4</v>
       </c>
-      <c r="I3" t="str">
-        <f>"insert into card(idcard, fkRessource, level, nbPtPrestige) values ("&amp;ROW()&amp;", 0,"&amp;A3&amp;","&amp;C3&amp;")"</f>
-        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (3, 0,4,3)</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4</v>
       </c>
@@ -484,12 +476,8 @@
       <c r="H4">
         <v>3</v>
       </c>
-      <c r="I4" t="str">
-        <f t="shared" ref="I4:I11" si="0">"insert into card(idcard, fkRessource, level, nbPtPrestige) values ("&amp;ROW()&amp;", 0,"&amp;A4&amp;","&amp;C4&amp;")"</f>
-        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (4, 0,4,3)</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -502,12 +490,8 @@
       <c r="H5">
         <v>4</v>
       </c>
-      <c r="I5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (5, 0,4,3)</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -520,12 +504,8 @@
       <c r="F6">
         <v>4</v>
       </c>
-      <c r="I6" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (6, 0,4,3)</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
@@ -541,12 +521,8 @@
       <c r="H7">
         <v>3</v>
       </c>
-      <c r="I7" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (7, 0,4,3)</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>4</v>
       </c>
@@ -562,12 +538,8 @@
       <c r="H8">
         <v>3</v>
       </c>
-      <c r="I8" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (8, 0,4,3)</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>4</v>
       </c>
@@ -583,12 +555,8 @@
       <c r="G9">
         <v>3</v>
       </c>
-      <c r="I9" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (9, 0,4,3)</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>4</v>
       </c>
@@ -601,12 +569,8 @@
       <c r="H10">
         <v>4</v>
       </c>
-      <c r="I10" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (10, 0,4,3)</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>4</v>
       </c>
@@ -622,12 +586,8 @@
       <c r="F11">
         <v>3</v>
       </c>
-      <c r="I11" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (11, 0,4,3)</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>3</v>
       </c>
@@ -643,12 +603,8 @@
       <c r="H12">
         <v>7</v>
       </c>
-      <c r="I12" t="str">
-        <f>"insert into card(idcard, fkRessource, level, nbPtPrestige) values (" &amp; ROW() &amp;"," &amp; B12 &amp; "," &amp; A12 &amp; "," &amp; C12 &amp; ")"</f>
-        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (12,4,3,5)</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>3</v>
       </c>
@@ -664,12 +620,8 @@
       <c r="F13">
         <v>3</v>
       </c>
-      <c r="I13" t="str">
-        <f t="shared" ref="I13:I76" si="1">"insert into card(idcard, fkRessource, level, nbPtPrestige) values (" &amp; ROW() &amp;"," &amp; B13 &amp; "," &amp; A13 &amp; "," &amp; C13 &amp; ")"</f>
-        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (13,3,3,5)</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>3</v>
       </c>
@@ -691,12 +643,8 @@
       <c r="H14">
         <v>5</v>
       </c>
-      <c r="I14" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (14,2,3,3)</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>3</v>
       </c>
@@ -718,12 +666,8 @@
       <c r="G15">
         <v>3</v>
       </c>
-      <c r="I15" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (15,5,3,3)</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>3</v>
       </c>
@@ -742,12 +686,8 @@
       <c r="G16">
         <v>3</v>
       </c>
-      <c r="I16" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (16,1,3,4)</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>3</v>
       </c>
@@ -766,12 +706,8 @@
       <c r="H17">
         <v>3</v>
       </c>
-      <c r="I17" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (17,2,3,4)</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>3</v>
       </c>
@@ -784,12 +720,8 @@
       <c r="F18">
         <v>7</v>
       </c>
-      <c r="I18" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (18,5,3,4)</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>3</v>
       </c>
@@ -805,12 +737,8 @@
       <c r="H19">
         <v>3</v>
       </c>
-      <c r="I19" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (19,5,3,5)</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>3</v>
       </c>
@@ -823,12 +751,8 @@
       <c r="E20">
         <v>7</v>
       </c>
-      <c r="I20" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (20,1,3,4)</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>3</v>
       </c>
@@ -847,12 +771,8 @@
       <c r="H21">
         <v>6</v>
       </c>
-      <c r="I21" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (21,4,3,4)</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>3</v>
       </c>
@@ -868,12 +788,8 @@
       <c r="G22">
         <v>7</v>
       </c>
-      <c r="I22" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (22,2,3,5)</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>3</v>
       </c>
@@ -886,12 +802,8 @@
       <c r="D23">
         <v>7</v>
       </c>
-      <c r="I23" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (23,3,3,4)</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>3</v>
       </c>
@@ -913,12 +825,8 @@
       <c r="H24">
         <v>3</v>
       </c>
-      <c r="I24" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (24,1,3,3)</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>3</v>
       </c>
@@ -940,12 +848,8 @@
       <c r="H25">
         <v>3</v>
       </c>
-      <c r="I25" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (25,4,3,3)</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>3</v>
       </c>
@@ -958,12 +862,8 @@
       <c r="G26">
         <v>7</v>
       </c>
-      <c r="I26" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (26,2,3,4)</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>3</v>
       </c>
@@ -982,12 +882,8 @@
       <c r="F27">
         <v>3</v>
       </c>
-      <c r="I27" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (27,3,3,4)</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>3</v>
       </c>
@@ -1000,12 +896,8 @@
       <c r="H28">
         <v>7</v>
       </c>
-      <c r="I28" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (28,4,3,4)</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>3</v>
       </c>
@@ -1021,12 +913,8 @@
       <c r="E29">
         <v>7</v>
       </c>
-      <c r="I29" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (29,1,3,5)</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>3</v>
       </c>
@@ -1045,12 +933,8 @@
       <c r="H30">
         <v>3</v>
       </c>
-      <c r="I30" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (30,5,3,4)</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>3</v>
       </c>
@@ -1072,12 +956,8 @@
       <c r="H31">
         <v>3</v>
       </c>
-      <c r="I31" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (31,3,3,3)</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>2</v>
       </c>
@@ -1090,12 +970,8 @@
       <c r="D32">
         <v>5</v>
       </c>
-      <c r="I32" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (32,5,2,2)</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>2</v>
       </c>
@@ -1114,12 +990,8 @@
       <c r="G33">
         <v>3</v>
       </c>
-      <c r="I33" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (33,1,2,1)</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>2</v>
       </c>
@@ -1138,12 +1010,8 @@
       <c r="F34">
         <v>2</v>
       </c>
-      <c r="I34" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (34,5,2,1)</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>2</v>
       </c>
@@ -1162,12 +1030,8 @@
       <c r="F35">
         <v>2</v>
       </c>
-      <c r="I35" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (35,5,2,2)</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>2</v>
       </c>
@@ -1186,12 +1050,8 @@
       <c r="H36">
         <v>2</v>
       </c>
-      <c r="I36" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (36,5,2,1)</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>2</v>
       </c>
@@ -1207,12 +1067,8 @@
       <c r="G37">
         <v>5</v>
       </c>
-      <c r="I37" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (37,2,2,2)</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>2</v>
       </c>
@@ -1231,12 +1087,8 @@
       <c r="H38">
         <v>2</v>
       </c>
-      <c r="I38" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (38,4,2,2)</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>2</v>
       </c>
@@ -1255,12 +1107,8 @@
       <c r="G39">
         <v>2</v>
       </c>
-      <c r="I39" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (39,4,2,1)</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>2</v>
       </c>
@@ -1279,12 +1127,8 @@
       <c r="H40">
         <v>4</v>
       </c>
-      <c r="I40" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (40,2,2,2)</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>2</v>
       </c>
@@ -1297,12 +1141,8 @@
       <c r="E41">
         <v>5</v>
       </c>
-      <c r="I41" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (41,2,2,2)</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>2</v>
       </c>
@@ -1318,12 +1158,8 @@
       <c r="E42">
         <v>5</v>
       </c>
-      <c r="I42" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (42,3,2,2)</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>2</v>
       </c>
@@ -1339,12 +1175,8 @@
       <c r="H43">
         <v>3</v>
       </c>
-      <c r="I43" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (43,1,2,2)</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>2</v>
       </c>
@@ -1357,12 +1189,8 @@
       <c r="H44">
         <v>6</v>
       </c>
-      <c r="I44" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (44,5,2,3)</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>2</v>
       </c>
@@ -1375,12 +1203,8 @@
       <c r="G45">
         <v>6</v>
       </c>
-      <c r="I45" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (45,4,2,3)</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>2</v>
       </c>
@@ -1399,12 +1223,8 @@
       <c r="H46">
         <v>2</v>
       </c>
-      <c r="I46" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (46,2,2,1)</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>2</v>
       </c>
@@ -1423,12 +1243,8 @@
       <c r="H47">
         <v>3</v>
       </c>
-      <c r="I47" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (47,3,2,1)</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>2</v>
       </c>
@@ -1441,12 +1257,8 @@
       <c r="D48">
         <v>6</v>
       </c>
-      <c r="I48" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (48,1,2,3)</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>2</v>
       </c>
@@ -1465,12 +1277,8 @@
       <c r="G49">
         <v>2</v>
       </c>
-      <c r="I49" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (49,4,2,1)</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>2</v>
       </c>
@@ -1483,12 +1291,8 @@
       <c r="H50">
         <v>5</v>
       </c>
-      <c r="I50" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (50,3,2,2)</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>2</v>
       </c>
@@ -1507,12 +1311,8 @@
       <c r="H51">
         <v>3</v>
       </c>
-      <c r="I51" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (51,2,2,1)</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>2</v>
       </c>
@@ -1525,12 +1325,8 @@
       <c r="G52">
         <v>5</v>
       </c>
-      <c r="I52" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (52,4,2,2)</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>2</v>
       </c>
@@ -1549,12 +1345,8 @@
       <c r="H53">
         <v>2</v>
       </c>
-      <c r="I53" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (53,1,2,1)</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>2</v>
       </c>
@@ -1567,12 +1359,8 @@
       <c r="F54">
         <v>5</v>
       </c>
-      <c r="I54" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (54,1,2,2)</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>2</v>
       </c>
@@ -1591,12 +1379,8 @@
       <c r="H55">
         <v>3</v>
       </c>
-      <c r="I55" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (55,3,2,1)</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>2</v>
       </c>
@@ -1612,12 +1396,8 @@
       <c r="H56">
         <v>5</v>
       </c>
-      <c r="I56" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (56,4,2,2)</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>2</v>
       </c>
@@ -1636,12 +1416,8 @@
       <c r="G57">
         <v>1</v>
       </c>
-      <c r="I57" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (57,3,2,2)</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>2</v>
       </c>
@@ -1660,12 +1436,8 @@
       <c r="H58">
         <v>1</v>
       </c>
-      <c r="I58" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (58,1,2,2)</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>2</v>
       </c>
@@ -1681,12 +1453,8 @@
       <c r="F59">
         <v>3</v>
       </c>
-      <c r="I59" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (59,5,2,2)</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>2</v>
       </c>
@@ -1699,12 +1467,8 @@
       <c r="E60">
         <v>6</v>
       </c>
-      <c r="I60" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (60,2,2,3)</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>2</v>
       </c>
@@ -1717,12 +1481,8 @@
       <c r="F61">
         <v>6</v>
       </c>
-      <c r="I61" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (61,3,2,3)</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>1</v>
       </c>
@@ -1741,12 +1501,8 @@
       <c r="F62">
         <v>1</v>
       </c>
-      <c r="I62" t="str">
-        <f>"insert into card(idcard, fkRessource, level, nbPtPrestige) values (" &amp; ROW() &amp;"," &amp; B62 &amp; "," &amp; A62 &amp; "," &amp; C62 &amp; ")"</f>
-        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (62,3,1,0)</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>1</v>
       </c>
@@ -1759,12 +1515,8 @@
       <c r="D63">
         <v>3</v>
       </c>
-      <c r="I63" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (63,2,1,0)</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>1</v>
       </c>
@@ -1783,12 +1535,8 @@
       <c r="H64">
         <v>1</v>
       </c>
-      <c r="I64" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (64,1,1,0)</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>1</v>
       </c>
@@ -1807,12 +1555,8 @@
       <c r="H65">
         <v>3</v>
       </c>
-      <c r="I65" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (65,5,1,0)</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>1</v>
       </c>
@@ -1834,12 +1578,8 @@
       <c r="H66">
         <v>1</v>
       </c>
-      <c r="I66" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (66,4,1,0)</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>1</v>
       </c>
@@ -1855,12 +1595,8 @@
       <c r="F67">
         <v>1</v>
       </c>
-      <c r="I67" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (67,5,1,0)</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>1</v>
       </c>
@@ -1876,12 +1612,8 @@
       <c r="G68">
         <v>2</v>
       </c>
-      <c r="I68" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (68,5,1,0)</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>1</v>
       </c>
@@ -1894,12 +1626,8 @@
       <c r="G69">
         <v>3</v>
       </c>
-      <c r="I69" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (69,5,1,0)</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>1</v>
       </c>
@@ -1921,12 +1649,8 @@
       <c r="G70">
         <v>1</v>
       </c>
-      <c r="I70" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (70,5,1,0)</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>1</v>
       </c>
@@ -1945,12 +1669,8 @@
       <c r="G71">
         <v>2</v>
       </c>
-      <c r="I71" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (71,5,1,0)</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>1</v>
       </c>
@@ -1972,12 +1692,8 @@
       <c r="G72">
         <v>1</v>
       </c>
-      <c r="I72" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (72,5,1,0)</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>1</v>
       </c>
@@ -1990,12 +1706,8 @@
       <c r="E73">
         <v>4</v>
       </c>
-      <c r="I73" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (73,5,1,1)</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>1</v>
       </c>
@@ -2017,12 +1729,8 @@
       <c r="H74">
         <v>2</v>
       </c>
-      <c r="I74" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (74,1,1,0)</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>1</v>
       </c>
@@ -2035,12 +1743,8 @@
       <c r="H75">
         <v>3</v>
       </c>
-      <c r="I75" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (75,1,1,0)</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>1</v>
       </c>
@@ -2056,12 +1760,8 @@
       <c r="H76">
         <v>2</v>
       </c>
-      <c r="I76" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (76,1,1,0)</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>1</v>
       </c>
@@ -2077,12 +1777,8 @@
       <c r="G77">
         <v>2</v>
       </c>
-      <c r="I77" t="str">
-        <f t="shared" ref="I77:I101" si="2">"insert into card(idcard, fkRessource, level, nbPtPrestige) values (" &amp; ROW() &amp;"," &amp; B77 &amp; "," &amp; A77 &amp; "," &amp; C77 &amp; ")"</f>
-        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (77,1,1,0)</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>1</v>
       </c>
@@ -2101,12 +1797,8 @@
       <c r="H78">
         <v>2</v>
       </c>
-      <c r="I78" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (78,1,1,0)</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>1</v>
       </c>
@@ -2128,12 +1820,8 @@
       <c r="H79">
         <v>1</v>
       </c>
-      <c r="I79" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (79,1,1,0)</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>1</v>
       </c>
@@ -2146,12 +1834,8 @@
       <c r="H80">
         <v>4</v>
       </c>
-      <c r="I80" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (80,1,1,1)</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>1</v>
       </c>
@@ -2170,12 +1854,8 @@
       <c r="H81">
         <v>2</v>
       </c>
-      <c r="I81" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (81,3,1,0)</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>1</v>
       </c>
@@ -2191,12 +1871,8 @@
       <c r="H82">
         <v>2</v>
       </c>
-      <c r="I82" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (82,3,1,0)</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>1</v>
       </c>
@@ -2209,12 +1885,8 @@
       <c r="E83">
         <v>3</v>
       </c>
-      <c r="I83" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (83,3,1,0)</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>1</v>
       </c>
@@ -2230,12 +1902,8 @@
       <c r="E84">
         <v>2</v>
       </c>
-      <c r="I84" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (84,3,1,0)</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>1</v>
       </c>
@@ -2257,12 +1925,8 @@
       <c r="H85">
         <v>1</v>
       </c>
-      <c r="I85" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (85,3,1,0)</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>1</v>
       </c>
@@ -2284,12 +1948,8 @@
       <c r="H86">
         <v>1</v>
       </c>
-      <c r="I86" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (86,3,1,0)</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>1</v>
       </c>
@@ -2302,12 +1962,8 @@
       <c r="G87">
         <v>4</v>
       </c>
-      <c r="I87" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (87,3,1,1)</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>1</v>
       </c>
@@ -2329,12 +1985,8 @@
       <c r="H88">
         <v>1</v>
       </c>
-      <c r="I88" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (88,4,1,0)</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>1</v>
       </c>
@@ -2350,12 +2002,8 @@
       <c r="H89">
         <v>1</v>
       </c>
-      <c r="I89" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (89,4,1,0)</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>1</v>
       </c>
@@ -2368,12 +2016,8 @@
       <c r="F90">
         <v>3</v>
       </c>
-      <c r="I90" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (90,4,1,0)</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>1</v>
       </c>
@@ -2392,12 +2036,8 @@
       <c r="H91">
         <v>1</v>
       </c>
-      <c r="I91" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (91,4,1,0)</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>1</v>
       </c>
@@ -2413,12 +2053,8 @@
       <c r="F92">
         <v>2</v>
       </c>
-      <c r="I92" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (92,4,1,0)</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>1</v>
       </c>
@@ -2437,12 +2073,8 @@
       <c r="G93">
         <v>1</v>
       </c>
-      <c r="I93" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (93,4,1,0)</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>1</v>
       </c>
@@ -2455,12 +2087,8 @@
       <c r="D94">
         <v>4</v>
       </c>
-      <c r="I94" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (94,4,1,1)</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>1</v>
       </c>
@@ -2479,12 +2107,8 @@
       <c r="H95">
         <v>1</v>
       </c>
-      <c r="I95" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (95,2,1,0)</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>1</v>
       </c>
@@ -2503,12 +2127,8 @@
       <c r="G96">
         <v>1</v>
       </c>
-      <c r="I96" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (96,2,1,0)</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>1</v>
       </c>
@@ -2530,12 +2150,8 @@
       <c r="H97">
         <v>1</v>
       </c>
-      <c r="I97" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (97,2,1,0)</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>1</v>
       </c>
@@ -2551,12 +2167,8 @@
       <c r="G98">
         <v>2</v>
       </c>
-      <c r="I98" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (98,2,1,0)</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>1</v>
       </c>
@@ -2572,12 +2184,8 @@
       <c r="H99">
         <v>2</v>
       </c>
-      <c r="I99" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (99,2,1,0)</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>1</v>
       </c>
@@ -2599,12 +2207,8 @@
       <c r="H100">
         <v>1</v>
       </c>
-      <c r="I100" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (100,2,1,0)</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>1</v>
       </c>
@@ -2616,10 +2220,6 @@
       </c>
       <c r="G101">
         <v>4</v>
-      </c>
-      <c r="I101" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into card(idcard, fkRessource, level, nbPtPrestige) values (101,2,1,1)</v>
       </c>
     </row>
   </sheetData>

--- a/Splendor_Cartes - sans requetes.xlsx
+++ b/Splendor_Cartes - sans requetes.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Splendide\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Splendide\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D881D1BE-2FEB-4FD4-B619-95FEF1460CB0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10455" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10455" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -380,12 +381,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I1" sqref="I1:I1048576"/>
+      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
